--- a/data/trans_bre/CONS_COR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>15,2%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 4,71</t>
+          <t>-4,82; 3,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,22</t>
+          <t>-6,06; 4,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,59</t>
+          <t>-2,51; 6,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 28,81</t>
+          <t>-29,0; 30,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 31,95</t>
+          <t>-31,79; 33,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 27,39</t>
+          <t>-13,32; 48,68</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,28%</t>
+          <t>-43,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,08%</t>
+          <t>-44,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,43%</t>
+          <t>-29,96%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,24; -1,13</t>
+          <t>-5,53; -2,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,76; -0,87</t>
+          <t>-3,32; 0,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,08; -2,48</t>
+          <t>-3,01; -0,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,03; -18,46</t>
+          <t>-53,93; -28,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,86; -22,74</t>
+          <t>-67,15; 1,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,25; -28,8</t>
+          <t>-50,2; -1,7</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-44,06%</t>
+          <t>-68,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-51,43%</t>
+          <t>-53,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-65,8%</t>
+          <t>-31,15%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,05</t>
+          <t>-5,96; -2,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,59</t>
+          <t>-4,46; -0,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; -2,12</t>
+          <t>-2,27; 0,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-69,23; 2,83</t>
+          <t>-80,82; -46,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,04; -16,49</t>
+          <t>-75,89; -9,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-78,98; -43,75</t>
+          <t>-67,89; 36,96</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,38%</t>
+          <t>-37,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>-17,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-35,11%</t>
+          <t>-6,67%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; -0,11</t>
+          <t>-4,57; -2,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,27</t>
+          <t>-2,7; 1,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -2,01</t>
+          <t>-1,51; 0,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,31; -1,04</t>
+          <t>-46,26; -26,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 5,38</t>
+          <t>-43,29; 19,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,7; -24,73</t>
+          <t>-22,73; 14,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_COR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,4%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 3,36</t>
+          <t>-4,74; 3,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 4,09</t>
+          <t>-5,93; 4,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 30,34</t>
+          <t>-28,76; 32,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 33,29</t>
+          <t>-30,88; 34,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-43,0%</t>
+          <t>-39,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,53; -2,41</t>
+          <t>-5,16; -2,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,44</t>
+          <t>-3,41; 0,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,93; -28,7</t>
+          <t>-51,59; -25,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,15; 1,47</t>
+          <t>-69,11; -1,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-68,51%</t>
+          <t>-67,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; -2,24</t>
+          <t>-4,91; -1,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -0,5</t>
+          <t>-4,46; -0,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-80,82; -46,63</t>
+          <t>-80,53; -45,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,89; -9,36</t>
+          <t>-76,77; -3,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-37,22%</t>
+          <t>-35,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -2,25</t>
+          <t>-4,03; -1,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,01</t>
+          <t>-2,53; 0,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,26; -26,18</t>
+          <t>-44,56; -24,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 19,91</t>
+          <t>-41,84; 21,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_COR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,43</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15,2%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-3,06%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,64%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>15,2%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,32; 4,78</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 6,51</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-4,74; 3,8</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,93; 4,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 6,51</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-28,7; 39,19</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 48,68</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-28,76; 32,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-30,88; 34,92</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-13,32; 48,68</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-3,61</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-40,21%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-29,96%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-39,78%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-44,1%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-29,96%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-3,18; -0,57</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; -0,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-5,16; -2,12</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 0,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; -0,11</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-58,66; -10,29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-50,2; -1,7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-51,59; -25,18</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-69,11; -1,68</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-50,2; -1,7</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-3,24</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-51,78%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-31,15%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-67,73%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-53,58%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-31,15%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-4,35; -0,45</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 0,67</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-4,91; -1,85</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,46; -0,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 0,67</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-74,06; -6,98</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-67,89; 36,96</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-80,53; -45,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-76,77; -3,16</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-67,89; 36,96</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-3,01</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-14,21%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-6,67%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-35,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-17,04%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-6,67%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,03; 0,42</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 0,79</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-4,03; -1,9</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 0,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 0,79</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-31,13; 8,13</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-22,73; 14,9</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-44,56; -24,09</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-41,84; 21,23</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-22,73; 14,9</t>
         </is>
       </c>
     </row>
